--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Project\Text_selections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC441B-13A5-44B4-A7B4-326721350E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647FD401-C1CB-4C80-86F7-19192F2FD96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10B03A99-41C8-47D8-B504-400DC21E9F54}"/>
+    <workbookView xWindow="14088" yWindow="3264" windowWidth="17280" windowHeight="8964" xr2:uid="{10B03A99-41C8-47D8-B504-400DC21E9F54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -33,19 +33,49 @@
     <t>name</t>
   </si>
   <si>
-    <t>index_1</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>kucing</t>
   </si>
   <si>
-    <t>keyword</t>
-  </si>
-  <si>
     <t>singa</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>mamalia</t>
+  </si>
+  <si>
+    <t>karnivora</t>
+  </si>
+  <si>
+    <t>siṃha</t>
+  </si>
+  <si>
+    <t>hewan</t>
+  </si>
+  <si>
+    <t>jantan</t>
+  </si>
+  <si>
+    <t>betina</t>
+  </si>
+  <si>
+    <t>indonesia</t>
+  </si>
+  <si>
+    <t>republik</t>
+  </si>
+  <si>
+    <t>negara</t>
+  </si>
+  <si>
+    <t>nkri</t>
+  </si>
+  <si>
+    <t>khatulistiwa</t>
+  </si>
+  <si>
+    <t>nusantara</t>
   </si>
 </sst>
 </file>
@@ -81,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,57 +428,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022BBA74-FEB6-451F-A275-43B379D56D63}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="C5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Project\Text_selections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647FD401-C1CB-4C80-86F7-19192F2FD96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F155BB6D-D4C4-4596-B992-6DBE4C17A0A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14088" yWindow="3264" windowWidth="17280" windowHeight="8964" xr2:uid="{10B03A99-41C8-47D8-B504-400DC21E9F54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10B03A99-41C8-47D8-B504-400DC21E9F54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -42,12 +45,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>mamalia</t>
-  </si>
-  <si>
-    <t>karnivora</t>
-  </si>
-  <si>
     <t>siṃha</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>nusantara</t>
+  </si>
+  <si>
+    <t>harimau</t>
   </si>
 </sst>
 </file>
@@ -111,9 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022BBA74-FEB6-451F-A275-43B379D56D63}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,175 +457,335 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>10</v>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" ref="A26" si="1">A25+1</f>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" ref="A27:A28" si="2">A26+1</f>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" ref="A29" si="3">A28+1</f>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C29" xr:uid="{D9997919-C2F0-4B6B-89E1-C426805DA2D5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
